--- a/exc_test.xlsx
+++ b/exc_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
-  <si>
-    <t>index</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>col_b</t>
   </si>
@@ -40,9 +37,6 @@
     <t>me</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>anna</t>
   </si>
   <si>
@@ -52,13 +46,22 @@
     <t>ivanof</t>
   </si>
   <si>
-    <t>yuri</t>
-  </si>
-  <si>
-    <t>sergei</t>
-  </si>
-  <si>
     <t>valentina</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>viktoria</t>
   </si>
 </sst>
 </file>
@@ -376,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,50 +397,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -447,15 +427,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,50 +445,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/exc_test.xlsx
+++ b/exc_test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFFBAC-2535-4A27-88C6-BA6C6D02989C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>col_b</t>
   </si>
@@ -58,16 +59,40 @@
     <t>ivan</t>
   </si>
   <si>
-    <t>idea</t>
-  </si>
-  <si>
     <t>viktoria</t>
+  </si>
+  <si>
+    <t>nomer</t>
+  </si>
+  <si>
+    <t>00155</t>
+  </si>
+  <si>
+    <t>0015606</t>
+  </si>
+  <si>
+    <t>00144</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sixth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,11 +404,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,55 +492,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,8 +502,8 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +511,21 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
